--- a/data/trans_media/IQ28_T-Estudios-trans_media.xlsx
+++ b/data/trans_media/IQ28_T-Estudios-trans_media.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +567,42 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2015</t>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -621,12 +652,27 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>110,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>105,0</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>—</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>110,0</t>
         </is>
       </c>
     </row>
@@ -667,6 +713,21 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -691,22 +752,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>134,56</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>132,97</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>131,28</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>149,49</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>132,95</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>132,75</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>141,4</t>
         </is>
       </c>
     </row>
@@ -719,32 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>127,09; 138,01</t>
+          <t>127,35; 138,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>128,61; 138,86</t>
+          <t>128,59; 138,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>128,51; 137,57</t>
+          <t>126,95; 142,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>125,33; 136,9</t>
+          <t>128,67; 137,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>129,35; 136,39</t>
+          <t>124,23; 136,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>128,86; 136,82</t>
+          <t>143,07; 156,74</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>129,65; 136,16</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>128,71; 136,47</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>136,18; 146,88</t>
         </is>
       </c>
     </row>
@@ -771,22 +862,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>140,9</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>129,55</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>134,03</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>135,53</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>130,08</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>133,29</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>138,54</t>
         </is>
       </c>
     </row>
@@ -799,32 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>128,3; 132,75</t>
+          <t>128,52; 132,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>130,35; 134,58</t>
+          <t>130,74; 134,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>127,62; 131,65</t>
+          <t>137,75; 143,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>132,25; 135,9</t>
+          <t>127,55; 131,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>128,68; 131,65</t>
+          <t>131,97; 135,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>131,88; 134,65</t>
+          <t>131,81; 140,35</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>128,56; 131,6</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>131,91; 134,59</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>136,19; 141,15</t>
         </is>
       </c>
     </row>
@@ -851,22 +972,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>141,31</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>126,06</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>126,83</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>138,51</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>127,01</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>128,44</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>139,97</t>
         </is>
       </c>
     </row>
@@ -879,32 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>124,52; 131,91</t>
+          <t>124,46; 131,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>126,97; 133,74</t>
+          <t>126,49; 133,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>122,26; 129,75</t>
+          <t>136,79; 146,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>123,41; 130,51</t>
+          <t>122,23; 129,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>124,49; 129,46</t>
+          <t>123,13; 130,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>126,13; 131,26</t>
+          <t>133,38; 142,69</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>124,53; 129,86</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>125,99; 131,02</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>136,73; 143,24</t>
         </is>
       </c>
     </row>
@@ -931,22 +1082,37 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>140,48</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>129,2</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>132,08</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>137,38</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>129,73</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>132,11</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>139,08</t>
         </is>
       </c>
     </row>
@@ -959,32 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>128,61; 132,16</t>
+          <t>128,57; 131,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>130,46; 133,82</t>
+          <t>130,39; 133,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>127,34; 130,81</t>
+          <t>138,12; 143,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>130,53; 133,73</t>
+          <t>127,61; 130,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>128,6; 130,98</t>
+          <t>130,42; 133,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>130,79; 133,21</t>
+          <t>134,52; 140,51</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>128,48; 130,95</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>131,01; 133,34</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>137,35; 141,1</t>
         </is>
       </c>
     </row>
@@ -997,12 +1178,12 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
